--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Psen1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Psen1-Notch1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.008411</v>
+        <v>8.937933333333332</v>
       </c>
       <c r="H2">
-        <v>75.025233</v>
+        <v>26.8138</v>
       </c>
       <c r="I2">
-        <v>0.4156829172908308</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="J2">
-        <v>0.4156829172908309</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N2">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q2">
-        <v>1398.176544307572</v>
+        <v>344.5812538682221</v>
       </c>
       <c r="R2">
-        <v>12583.58889876815</v>
+        <v>3101.231284814</v>
       </c>
       <c r="S2">
-        <v>0.2665542439193603</v>
+        <v>0.1325540692832748</v>
       </c>
       <c r="T2">
-        <v>0.2665542439193603</v>
+        <v>0.1325540692832747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.008411</v>
+        <v>8.937933333333332</v>
       </c>
       <c r="H3">
-        <v>75.025233</v>
+        <v>26.8138</v>
       </c>
       <c r="I3">
-        <v>0.4156829172908308</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="J3">
-        <v>0.4156829172908309</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q3">
-        <v>134.312072755836</v>
+        <v>48.00274404293333</v>
       </c>
       <c r="R3">
-        <v>1208.808654802524</v>
+        <v>432.0246963864</v>
       </c>
       <c r="S3">
-        <v>0.02560581719700079</v>
+        <v>0.0184657725521182</v>
       </c>
       <c r="T3">
-        <v>0.0256058171970008</v>
+        <v>0.0184657725521182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.008411</v>
+        <v>8.937933333333332</v>
       </c>
       <c r="H4">
-        <v>75.025233</v>
+        <v>26.8138</v>
       </c>
       <c r="I4">
-        <v>0.4156829172908308</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="J4">
-        <v>0.4156829172908309</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N4">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q4">
-        <v>647.9235057359271</v>
+        <v>205.8393682525555</v>
       </c>
       <c r="R4">
-        <v>5831.311551623343</v>
+        <v>1852.554314273</v>
       </c>
       <c r="S4">
-        <v>0.1235228561744697</v>
+        <v>0.07918261824831964</v>
       </c>
       <c r="T4">
-        <v>0.1235228561744698</v>
+        <v>0.07918261824831964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>61.488057</v>
       </c>
       <c r="I5">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241245</v>
       </c>
       <c r="J5">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241244</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N5">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q5">
-        <v>1145.896595248788</v>
+        <v>790.1763934608566</v>
       </c>
       <c r="R5">
-        <v>10313.06935723909</v>
+        <v>7111.587541147709</v>
       </c>
       <c r="S5">
-        <v>0.218458535726314</v>
+        <v>0.3039663221054811</v>
       </c>
       <c r="T5">
-        <v>0.218458535726314</v>
+        <v>0.303966322105481</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>61.488057</v>
       </c>
       <c r="I6">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241245</v>
       </c>
       <c r="J6">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241244</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>16.112028</v>
       </c>
       <c r="O6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q6">
         <v>110.077477338844</v>
       </c>
       <c r="R6">
-        <v>990.6972960495959</v>
+        <v>990.697296049596</v>
       </c>
       <c r="S6">
-        <v>0.02098563222510439</v>
+        <v>0.04234478049488246</v>
       </c>
       <c r="T6">
-        <v>0.02098563222510439</v>
+        <v>0.04234478049488246</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>61.488057</v>
       </c>
       <c r="I7">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241245</v>
       </c>
       <c r="J7">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241244</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N7">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q7">
-        <v>531.0154445282498</v>
+        <v>472.0204822873716</v>
       </c>
       <c r="R7">
-        <v>4779.139000754247</v>
+        <v>4248.184340586345</v>
       </c>
       <c r="S7">
-        <v>0.1012350127757497</v>
+        <v>0.1815775960237609</v>
       </c>
       <c r="T7">
-        <v>0.1012350127757497</v>
+        <v>0.1815775960237609</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.65779933333333</v>
+        <v>9.392449999999998</v>
       </c>
       <c r="H8">
-        <v>43.973398</v>
+        <v>28.17735</v>
       </c>
       <c r="I8">
-        <v>0.243637901982001</v>
+        <v>0.241908841292163</v>
       </c>
       <c r="J8">
-        <v>0.2436379019820011</v>
+        <v>0.2419088412921629</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N8">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O8">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P8">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q8">
-        <v>819.4919388934321</v>
+        <v>362.1040879578333</v>
       </c>
       <c r="R8">
-        <v>7375.427450040889</v>
+        <v>3258.9367916205</v>
       </c>
       <c r="S8">
-        <v>0.1562313822664851</v>
+        <v>0.139294781199199</v>
       </c>
       <c r="T8">
-        <v>0.1562313822664851</v>
+        <v>0.139294781199199</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.65779933333333</v>
+        <v>9.392449999999998</v>
       </c>
       <c r="H9">
-        <v>43.973398</v>
+        <v>28.17735</v>
       </c>
       <c r="I9">
-        <v>0.243637901982001</v>
+        <v>0.241908841292163</v>
       </c>
       <c r="J9">
-        <v>0.2436379019820011</v>
+        <v>0.2419088412921629</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>16.112028</v>
       </c>
       <c r="O9">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P9">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q9">
-        <v>78.72229109234934</v>
+        <v>50.4438057962</v>
       </c>
       <c r="R9">
-        <v>708.500619831144</v>
+        <v>453.9942521658</v>
       </c>
       <c r="S9">
-        <v>0.01500794793558269</v>
+        <v>0.01940480410167256</v>
       </c>
       <c r="T9">
-        <v>0.01500794793558269</v>
+        <v>0.01940480410167256</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.65779933333333</v>
+        <v>9.392449999999998</v>
       </c>
       <c r="H10">
-        <v>43.973398</v>
+        <v>28.17735</v>
       </c>
       <c r="I10">
-        <v>0.243637901982001</v>
+        <v>0.241908841292163</v>
       </c>
       <c r="J10">
-        <v>0.2436379019820011</v>
+        <v>0.2419088412921629</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N10">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O10">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P10">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q10">
-        <v>379.7575435891176</v>
+        <v>216.3068242110833</v>
       </c>
       <c r="R10">
-        <v>3417.817892302058</v>
+        <v>1946.76141789975</v>
       </c>
       <c r="S10">
-        <v>0.07239857177993324</v>
+        <v>0.08320925599129141</v>
       </c>
       <c r="T10">
-        <v>0.07239857177993325</v>
+        <v>0.08320925599129141</v>
       </c>
     </row>
   </sheetData>
